--- a/yemeksepeti_selenium/YemekSepeti.xlsx
+++ b/yemeksepeti_selenium/YemekSepeti.xlsx
@@ -719,7 +719,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>35
+          <t>30
 DK.</t>
         </is>
       </c>
@@ -776,28 +776,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Döner Plus</t>
+          <t>Nişantaşı Sultanahmet Köftecisi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>40
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/nimh/doner-plus-nimh</t>
+          <t>https://www.yemeksepeti.com/restaurant/i7z9/nisantasi-sultanahmet-koftecisi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>95 TL minimum|</t>
+          <t>90 TL minimum|</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Döner</t>
+          <t>KöfteKebap &amp; Türk Mutfağı</t>
         </is>
       </c>
     </row>
@@ -807,28 +807,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nişantaşı Sultanahmet Köftecisi</t>
+          <t>Pizza Nella Italiano</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>50
+          <t>40
 DK.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/i7z9/nisantasi-sultanahmet-koftecisi</t>
+          <t>https://www.yemeksepeti.com/restaurant/imm5/pizza-nella-italiano</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90 TL minimum|</t>
+          <t>80 TL minimum|</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>KöfteKebap &amp; Türk Mutfağı</t>
+          <t>PizzaVejetaryen SeçenekliVegan Seçenekli</t>
         </is>
       </c>
     </row>
@@ -869,28 +869,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(Chinastix) &amp; Sushi</t>
+          <t>! Classo Dondurma</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>60
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/doh3/chinastix-and-sushi</t>
+          <t>https://www.yemeksepeti.com/restaurant/ww65/classo-dondurma-ww65</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>150 TL minimum|</t>
+          <t>70 TL minimum|</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Uzak DoğuVejetaryen SeçenekliRestoran Teslimatlı</t>
+          <t>DondurmaTatlıRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -900,28 +900,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Adembey Döner</t>
+          <t>Adile Sultan Ev Yemekleri</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>45
+          <t>60
 DK.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/yh1v/adembey-doner</t>
+          <t>https://www.yemeksepeti.com/restaurant/ll62/adile-sultan-ev-yemekleri-ll62</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>70 TL minimum|</t>
+          <t>100 TL minimum|</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıDönerRestoran Teslimatlı</t>
+          <t>Ev YemekleriVejetaryen SeçenekliKebap &amp; Türk Mutfağı</t>
         </is>
       </c>
     </row>
@@ -931,28 +931,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bronwyn</t>
+          <t>Pizza Bulls</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>45
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/ew56/bronwyn</t>
+          <t>https://www.yemeksepeti.com/restaurant/g03y/pizza-bulls-g03y</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>70 TL minimum|</t>
+          <t>44,90 TL minimum|</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dünya Mutfağı &amp; CafeVejetaryen Seçenekli</t>
+          <t>PizzaRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -962,28 +962,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>+ 1992 Antakya'nın Meşhur Tostu</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/mliu/1992-antakyanin-meshur-tostu</t>
+          <t>https://www.yemeksepeti.com/restaurant/ecgu/mcdonalds-ecgu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>70 TL minimum|</t>
+          <t>85 TL minimum|</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tost &amp; Sandviç</t>
+          <t>BurgerRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -993,28 +993,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pizza Bulls</t>
+          <t>(+) Tatlı Zamanı</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>50
+          <t>40
 DK.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/g03y/pizza-bulls-g03y</t>
+          <t>https://www.yemeksepeti.com/restaurant/usht/tatli-zamani-usht</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>44,90 TL minimum|</t>
+          <t>40 TL minimum|</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PizzaRestoran Teslimatlı</t>
+          <t>TatlıRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1024,28 +1024,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Adile Sultan Ev Yemekleri</t>
+          <t>Bronwyn</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>60
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/ll62/adile-sultan-ev-yemekleri-ll62</t>
+          <t>https://www.yemeksepeti.com/restaurant/ew56/bronwyn</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>100 TL minimum|</t>
+          <t>70 TL minimum|</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ev YemekleriVejetaryen SeçenekliKebap &amp; Türk Mutfağı</t>
+          <t>Dünya Mutfağı &amp; CafeVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -1055,28 +1055,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Popeyes</t>
+          <t>Adembey Döner</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>50
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/ankz/popeyes-ankz</t>
+          <t>https://www.yemeksepeti.com/restaurant/yh1v/adembey-doner</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>80 TL minimum|</t>
+          <t>70 TL minimum|</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TavukRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk MutfağıDönerRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1086,28 +1086,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>+ A Plus Lahmacun</t>
+          <t>Hızlı Burger</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>60
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/u5vk/a-plus-lahmacun</t>
+          <t>https://www.yemeksepeti.com/restaurant/v1hj/hizli-burger-v1hj</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>50 TL minimum|</t>
+          <t>40 TL minimum|</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunVejetaryen Seçenekli</t>
+          <t>BurgerVejetaryen SeçenekliVegan Seçenekli</t>
         </is>
       </c>
     </row>
@@ -1117,28 +1117,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Şehrazat Kebap</t>
+          <t>(Chinastix) &amp; Sushi</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>45
+          <t>60
 DK.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/k5ur/sehrazat-kebap</t>
+          <t>https://www.yemeksepeti.com/restaurant/doh3/chinastix-and-sushi</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>50 TL minimum|</t>
+          <t>150 TL minimum|</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunDöner</t>
+          <t>Uzak DoğuVejetaryen SeçenekliRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1148,28 +1148,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Burger King</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>50
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/ecgu/mcdonalds-ecgu</t>
+          <t>https://www.yemeksepeti.com/restaurant/r1m8/burger-king-r1m8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>85 TL minimum|</t>
+          <t>80 TL minimum|</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BurgerRestoran Teslimatlı</t>
+          <t>BurgerVejetaryen SeçenekliRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1179,28 +1179,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jet Döner</t>
+          <t>Mersin Yaprak Tantuni</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>50
+          <t>55
 DK.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/pvcp/jet-doner</t>
+          <t>https://www.yemeksepeti.com/restaurant/yzuq/mersin-yaprak-tantuni-yzuq</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>70 TL minimum|</t>
+          <t>50 TL minimum|</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıVejetaryen Seçenekli</t>
+          <t>TantuniRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1210,28 +1210,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1980'den Beri Koç Büfe</t>
+          <t>+ A Plus Lahmacun</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>45
+          <t>60
 DK.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/t672/1980den-beri-koc-bufe</t>
+          <t>https://www.yemeksepeti.com/restaurant/u5vk/a-plus-lahmacun</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>100 TL minimum|</t>
+          <t>50 TL minimum|</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tost &amp; SandviçDönerRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -1241,28 +1241,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Burger King</t>
+          <t>Döner Plus</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>45
+          <t>40
 DK.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/r1m8/burger-king-r1m8</t>
+          <t>https://www.yemeksepeti.com/restaurant/nimh/doner-plus-nimh</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80 TL minimum|</t>
+          <t>95 TL minimum|</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>BurgerVejetaryen SeçenekliRestoran Teslimatlı</t>
+          <t>Döner</t>
         </is>
       </c>
     </row>
@@ -1303,28 +1303,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mersin Yaprak Tantuni</t>
+          <t>Popeyes</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>55
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/yzuq/mersin-yaprak-tantuni-yzuq</t>
+          <t>https://www.yemeksepeti.com/restaurant/ankz/popeyes-ankz</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>50 TL minimum|</t>
+          <t>80 TL minimum|</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TantuniRestoran Teslimatlı</t>
+          <t>TavukRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>21 Mercan Kebap</t>
+          <t>1980'den Beri Koç Büfe</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1345,17 +1345,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/ta70/21-mercan-kebap-ta70</t>
+          <t>https://www.yemeksepeti.com/restaurant/t672/1980den-beri-koc-bufe</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>120 TL minimum|</t>
+          <t>100 TL minimum|</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıTavukKöfteRestoran Teslimatlı</t>
+          <t>Tost &amp; SandviçDönerRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1365,28 +1365,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ercan Burger</t>
+          <t>Şehrazat Kebap</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>40
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/wwsw/ercan-burger-wwsw</t>
+          <t>https://www.yemeksepeti.com/restaurant/k5ur/sehrazat-kebap</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>120 TL minimum|</t>
+          <t>50 TL minimum|</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BurgerRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunDöner</t>
         </is>
       </c>
     </row>
@@ -1396,18 +1396,18 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pide City</t>
+          <t>Jet Döner</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>45
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/qh0a/pide-city-qh0a</t>
+          <t>https://www.yemeksepeti.com/restaurant/pvcp/jet-doner</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pide &amp; LahmacunVejetaryen SeçenekliKebap &amp; Türk Mutfağı</t>
+          <t>Kebap &amp; Türk MutfağıVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -1427,18 +1427,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Little Caesars Pizza</t>
+          <t>KFC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>30
+          <t>40
 DK.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/lmeb/little-caesars-pizza-lmeb</t>
+          <t>https://www.yemeksepeti.com/restaurant/ud13/kfc-ud13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PizzaRestoran Teslimatlı</t>
+          <t>TavukRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1458,28 +1458,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>27 Tahir Usta</t>
+          <t>21 Mercan Kebap</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>50
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/ztoi/27-tahir-usta</t>
+          <t>https://www.yemeksepeti.com/restaurant/ta70/21-mercan-kebap-ta70</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>200 TL minimum|</t>
+          <t>120 TL minimum|</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk Mutfağı</t>
+          <t>Kebap &amp; Türk MutfağıTavukKöfteRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1489,28 +1489,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hızlı Burger</t>
+          <t>Meşhur Unkapanı Pilavcısı</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>45
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/v1hj/hizli-burger-v1hj</t>
+          <t>https://www.yemeksepeti.com/restaurant/o9bz/meshur-unkapani-pilavcisi-o9bz</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>40 TL minimum|</t>
+          <t>50 TL minimum|</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>BurgerVejetaryen SeçenekliVegan Seçenekli</t>
+          <t>PilavRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1520,28 +1520,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pizza Lazza</t>
+          <t>Beşiktaş Çıtır Pide &amp; Lahmacun</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>45
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/p2p6/pizza-lazza-p2p6</t>
+          <t>https://www.yemeksepeti.com/restaurant/yop5/besiktas-citir-pide-and-lahmacun</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>59,99 TL minimum|</t>
+          <t>90 TL minimum|</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PizzaVejetaryen SeçenekliRestoran Teslimatlı</t>
+          <t>Pide &amp; LahmacunKebap &amp; Türk MutfağıRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1551,28 +1551,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>27 Tahir Usta Kebapçısı</t>
+          <t>27 Tahir Usta</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>45
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/x7t4/27-tahir-usta-kebapcisi</t>
+          <t>https://www.yemeksepeti.com/restaurant/ztoi/27-tahir-usta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>90 TL minimum|</t>
+          <t>200 TL minimum|</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk Mutfağı</t>
         </is>
       </c>
     </row>
@@ -1582,28 +1582,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fulya Kebap &amp; Pide &amp; Lahmacun</t>
+          <t>Pide City</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>40
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/lxli/fulya-kebap-and-pide-and-lahmacun-lxli</t>
+          <t>https://www.yemeksepeti.com/restaurant/qh0a/pide-city-qh0a</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>40 TL minimum|</t>
+          <t>70 TL minimum|</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunRestoran Teslimatlı</t>
+          <t>Pide &amp; LahmacunVejetaryen SeçenekliKebap &amp; Türk Mutfağı</t>
         </is>
       </c>
     </row>
@@ -1613,28 +1613,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Yesen Burger</t>
+          <t>Little Caesars Pizza</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>55
+          <t>30
 DK.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/mxr0/yesen-burger-mxr0</t>
+          <t>https://www.yemeksepeti.com/restaurant/lmeb/little-caesars-pizza-lmeb</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>99 TL minimum|</t>
+          <t>80 TL minimum|</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>BurgerRestoran Teslimatlı</t>
+          <t>PizzaRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1644,23 +1644,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mr. Hamza Plus</t>
+          <t>Happy Burger</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>35
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/c5rm/mr-hamza-plus</t>
+          <t>https://www.yemeksepeti.com/restaurant/eago/happy-burger-eago</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>70 TL minimum|</t>
+          <t>80 TL minimum|</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>33 Cihan Usta Mersin Tantuni</t>
+          <t>27 Tahir Usta Kebapçısı</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1686,17 +1686,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/pm1j/33-cihan-usta-mersin-tantuni</t>
+          <t>https://www.yemeksepeti.com/restaurant/x7t4/27-tahir-usta-kebapcisi</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>500 TL minimum|</t>
+          <t>90 TL minimum|</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TantuniRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk MutfağıRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1706,28 +1706,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Happy Burger</t>
+          <t>Hot Döner</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>45
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/eago/happy-burger-eago</t>
+          <t>https://www.yemeksepeti.com/restaurant/fc71/hot-doner-fc71</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>80 TL minimum|</t>
+          <t>60 TL minimum|</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>BurgerVejetaryen SeçenekliVegan Seçenekli</t>
+          <t>DönerKebap &amp; Türk MutfağıRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1768,28 +1768,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>City Wok &amp; Sushi</t>
+          <t>Ercan Burger</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>50
+          <t>40
 DK.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/x3p9/city-wok-and-sushi</t>
+          <t>https://www.yemeksepeti.com/restaurant/wwsw/ercan-burger-wwsw</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>35 TL minimum|</t>
+          <t>120 TL minimum|</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Uzak DoğuVejetaryen SeçenekliRestoran Teslimatlı</t>
+          <t>BurgerRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1799,28 +1799,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tahin</t>
+          <t>33 Cihan Usta Mersin Tantuni</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>30
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/omde/tahin-omde</t>
+          <t>https://www.yemeksepeti.com/restaurant/pm1j/33-cihan-usta-mersin-tantuni</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>70 TL minimum|</t>
+          <t>500 TL minimum|</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dünya Mutfağı &amp; CafeVejetaryen Seçenekli</t>
+          <t>TantuniRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1830,28 +1830,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bambi Cafe</t>
+          <t>Göreme Muhallebicisi</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>25
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/aeu0/bambi-cafe-aeu0</t>
+          <t>https://www.yemeksepeti.com/restaurant/ivnp/goreme-muhallebicisi-ivnp</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>70 TL minimum|</t>
+          <t>250 TL minimum|</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tost &amp; SandviçBurgerDönerYemeksepeti Teslimatlı</t>
+          <t>TatlıKahvaltı &amp; BörekEv Yemekleri</t>
         </is>
       </c>
     </row>
@@ -1861,28 +1861,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pizza Nella Italiano</t>
+          <t>Eagle Chinese Gastro &amp; Sushi</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>40
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/imm5/pizza-nella-italiano</t>
+          <t>https://www.yemeksepeti.com/restaurant/ie1j/eagle-chinese-gastro-and-sushi-ie1j</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>80 TL minimum|</t>
+          <t>0 TL minimum|</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PizzaVejetaryen SeçenekliVegan Seçenekli</t>
+          <t>Uzak DoğuVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Eagle Chinese Gastro &amp; Sushi</t>
+          <t>City Wok &amp; Sushi</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1903,17 +1903,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/ie1j/eagle-chinese-gastro-and-sushi-ie1j</t>
+          <t>https://www.yemeksepeti.com/restaurant/x3p9/city-wok-and-sushi</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0 TL minimum|</t>
+          <t>35 TL minimum|</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Uzak DoğuVejetaryen Seçenekli</t>
+          <t>Uzak DoğuVejetaryen SeçenekliRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1923,28 +1923,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Hot Döner</t>
+          <t>Bambi Cafe</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>50
+          <t>20
 DK.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/fc71/hot-doner-fc71</t>
+          <t>https://www.yemeksepeti.com/restaurant/aeu0/bambi-cafe-aeu0</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>60 TL minimum|</t>
+          <t>70 TL minimum|</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DönerKebap &amp; Türk MutfağıRestoran Teslimatlı</t>
+          <t>Tost &amp; SandviçBurgerDönerYemeksepeti Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1954,28 +1954,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>City Wok &amp; Sushi</t>
+          <t>Yesen Burger</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>50
+          <t>55
 DK.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/x3p9/city-wok-and-sushi</t>
+          <t>https://www.yemeksepeti.com/restaurant/mxr0/yesen-burger-mxr0</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>35 TL minimum|</t>
+          <t>99 TL minimum|</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Uzak DoğuVejetaryen SeçenekliRestoran Teslimatlı</t>
+          <t>BurgerRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -1985,28 +1985,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/24 Çeşme Kumru</t>
+          <t>Tahin</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>40
+          <t>25
 DK.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/g0mr/6-24-cesme-kumru</t>
+          <t>https://www.yemeksepeti.com/restaurant/omde/tahin-omde</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>90 TL minimum|</t>
+          <t>70 TL minimum|</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tost &amp; SandviçVejetaryen SeçenekliRestoran Teslimatlı</t>
+          <t>Dünya Mutfağı &amp; CafeVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -2016,28 +2016,28 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Eagle Chinese Gastro &amp; Sushi</t>
+          <t>400° C Pizza</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>50
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/ie1j/eagle-chinese-gastro-and-sushi-ie1j</t>
+          <t>https://www.yemeksepeti.com/restaurant/x277/400deg-c-pizza</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0 TL minimum|</t>
+          <t>70 TL minimum|</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Uzak DoğuVejetaryen Seçenekli</t>
+          <t>PizzaVejetaryen SeçenekliVegan Seçenekli</t>
         </is>
       </c>
     </row>
@@ -2047,18 +2047,18 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bambi Cafe</t>
+          <t>Mr. Hamza Plus</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>25
+          <t>30
 DK.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/aeu0/bambi-cafe-aeu0</t>
+          <t>https://www.yemeksepeti.com/restaurant/c5rm/mr-hamza-plus</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tost &amp; SandviçBurgerDönerYemeksepeti Teslimatlı</t>
+          <t>BurgerVejetaryen SeçenekliVegan Seçenekli</t>
         </is>
       </c>
     </row>
@@ -2078,28 +2078,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Paşa Döner</t>
+          <t>Fulya Kebap &amp; Pide &amp; Lahmacun</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>60
+          <t>40
 DK.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/dzet/pasa-doner-dzet</t>
+          <t>https://www.yemeksepeti.com/restaurant/lxli/fulya-kebap-and-pide-and-lahmacun-lxli</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>25 TL minimum|</t>
+          <t>40 TL minimum|</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DönerRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2109,28 +2109,28 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7 Şef Meze &amp; Kaburga</t>
+          <t>Belgizar</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>55
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/frx2/7-sef-meze-and-kaburga-frx2</t>
+          <t>https://www.yemeksepeti.com/restaurant/j0lr/belgizar</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>190 TL minimum|</t>
+          <t>200 TL minimum|</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MezeRestoran Teslimatlı</t>
+          <t>Dünya Mutfağı &amp; CafeVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -2140,28 +2140,28 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mr. Hamza Plus</t>
+          <t>46 Zurna Dürüm</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>35
+          <t>60
 DK.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/c5rm/mr-hamza-plus</t>
+          <t>https://www.yemeksepeti.com/restaurant/c6cy/46-zurna-durum-c6cy</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>70 TL minimum|</t>
+          <t>35 TL minimum|</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>BurgerVejetaryen SeçenekliVegan Seçenekli</t>
+          <t>DönerRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2171,28 +2171,28 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Green Salads</t>
+          <t>Paşa Döner</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>35
+          <t>60
 DK.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/jf7v/green-salads-jf7v</t>
+          <t>https://www.yemeksepeti.com/restaurant/dzet/pasa-doner-dzet</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>70 TL minimum|</t>
+          <t>25 TL minimum|</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Makarna &amp; SalataVejetaryen SeçenekliYemeksepeti Teslimatlı</t>
+          <t>DönerRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2233,28 +2233,28 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Abant Ev Yemekleri &amp; Izgara</t>
+          <t>6/24 Çeşme Kumru</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>45
+          <t>40
 DK.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/k6mu/abant-ev-yemekleri-and-izgara</t>
+          <t>https://www.yemeksepeti.com/restaurant/g0mr/6-24-cesme-kumru</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>69 TL minimum|</t>
+          <t>90 TL minimum|</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıVejetaryen Seçenekli</t>
+          <t>Tost &amp; SandviçVejetaryen SeçenekliRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2264,28 +2264,28 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fulya Kebap &amp; Pide &amp; Lahmacun</t>
+          <t>Pizza Lazza</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>40
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/lxli/fulya-kebap-and-pide-and-lahmacun-lxli</t>
+          <t>https://www.yemeksepeti.com/restaurant/p2p6/pizza-lazza-p2p6</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>40 TL minimum|</t>
+          <t>59,99 TL minimum|</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunRestoran Teslimatlı</t>
+          <t>PizzaVejetaryen SeçenekliRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Subway</t>
+          <t>Sarıhan İşkembe</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/zi7a/subway-zi7a</t>
+          <t>https://www.yemeksepeti.com/restaurant/numa/sarihan-iskembe-numa</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tost &amp; SandviçVejetaryen Seçenekli</t>
+          <t>Kebap &amp; Türk MutfağıKokoreçRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2357,28 +2357,28 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Abbasağa Kanatçısı</t>
+          <t>7 Şef Meze &amp; Kaburga</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>45
+          <t>55
 DK.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/jfd0/abbasaga-kanatcisi</t>
+          <t>https://www.yemeksepeti.com/restaurant/frx2/7-sef-meze-and-kaburga-frx2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>120 TL minimum|</t>
+          <t>190 TL minimum|</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>TavukRestoran Teslimatlı</t>
+          <t>MezeRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2388,28 +2388,28 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Antepli Kardeşler Lahmacun</t>
+          <t>Komagene Etsiz Çiğ Köfte</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>60
+          <t>25
 DK.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/bzsa/antepli-kardesler-lahmacun</t>
+          <t>https://www.yemeksepeti.com/restaurant/az2d/komagene-etsiz-cig-kofte-az2d</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>50 TL minimum|</t>
+          <t>70 TL minimum|</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Pide &amp; LahmacunVejetaryen SeçenekliKebap &amp; Türk Mutfağı</t>
+          <t>Çiğ KöfteVejetaryen SeçenekliKebap &amp; Türk Mutfağı</t>
         </is>
       </c>
     </row>
@@ -2419,18 +2419,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Starbucks Coffee</t>
+          <t>Green Salads</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>30
+          <t>35
 DK.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/x3rc/starbucks-coffee-x3rc</t>
+          <t>https://www.yemeksepeti.com/restaurant/jf7v/green-salads-jf7v</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>KahveVejetaryen SeçenekliYemeksepeti Teslimatlı</t>
+          <t>Makarna &amp; SalataVejetaryen SeçenekliYemeksepeti Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2450,28 +2450,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Abbasi Ev Yemekleri</t>
+          <t>Domino's Pizza</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>45
+          <t>30
 DK.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/okro/abbasi-ev-yemekleri</t>
+          <t>https://www.yemeksepeti.com/restaurant/xfx7/dominos-pizza-xfx7</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>140 TL minimum|</t>
+          <t>59,99 TL minimum|</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıEv YemekleriPilavRestoran Teslimatlı</t>
+          <t>PizzaRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2481,28 +2481,28 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Oses Çiğ Köfte</t>
+          <t>Abant Ev Yemekleri &amp; Izgara</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>35
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/kj9z/oses-cig-kofte-kj9z</t>
+          <t>https://www.yemeksepeti.com/restaurant/k6mu/abant-ev-yemekleri-and-izgara</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>50 TL minimum|</t>
+          <t>69 TL minimum|</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Çiğ KöfteRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk MutfağıVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -2512,28 +2512,28 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sarıhan İşkembe</t>
+          <t>Çorba Zamanı</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>45
+          <t>60
 DK.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/numa/sarihan-iskembe-numa</t>
+          <t>https://www.yemeksepeti.com/restaurant/hwd6/corba-zamani-hwd6</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>100 TL minimum|</t>
+          <t>45 TL minimum|</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıKokoreçRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk MutfağıRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2543,28 +2543,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Çorba Zamanı</t>
+          <t>Lahmacun-Cu</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>60
+          <t>40
 DK.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/hwd6/corba-zamani-hwd6</t>
+          <t>https://www.yemeksepeti.com/restaurant/r3qf/lahmacun-cu</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>45 TL minimum|</t>
+          <t>55 TL minimum|</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıRestoran Teslimatlı</t>
+          <t>Pide &amp; LahmacunKebap &amp; Türk MutfağıRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2574,28 +2574,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Abbasi Ev Yemekleri</t>
+          <t>Abbasağa Kanatçısı</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>60
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/r9hi/abbasi-ev-yemekleri-r9hi</t>
+          <t>https://www.yemeksepeti.com/restaurant/jfd0/abbasaga-kanatcisi</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>50 TL minimum|</t>
+          <t>120 TL minimum|</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ev Yemekleri</t>
+          <t>TavukRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2605,18 +2605,18 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Beyoğlu Halk Döner</t>
+          <t>Subway</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>40
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/o2vy/beyoglu-halk-doner-o2vy</t>
+          <t>https://www.yemeksepeti.com/restaurant/zi7a/subway-zi7a</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıVejetaryen Seçenekli</t>
+          <t>Tost &amp; SandviçVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -2636,28 +2636,28 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Balbadem Pastanesi</t>
+          <t>Starbucks Coffee</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>50
+          <t>25
 DK.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/er5v/balbadem-pastanesi</t>
+          <t>https://www.yemeksepeti.com/restaurant/x3rc/starbucks-coffee-x3rc</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>180 TL minimum|</t>
+          <t>70 TL minimum|</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Pastane &amp; FırınVejetaryen SeçenekliTatlıRestoran Teslimatlı</t>
+          <t>KahveVejetaryen SeçenekliYemeksepeti Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2667,28 +2667,28 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Etiler Marmaris</t>
+          <t>Yes Kardeşler Fulya Dürümcüsü</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>40
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/hob2/etiler-marmaris-hob2</t>
+          <t>https://www.yemeksepeti.com/restaurant/xdxz/yes-kardesler-fulya-durumcusu</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>100 TL minimum|</t>
+          <t>65 TL minimum|</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tost &amp; SandviçRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Abc Sucuk Ekmek</t>
+          <t>Abbasi Ev Yemekleri</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/hmak/abc-sucuk-ekmek</t>
+          <t>https://www.yemeksepeti.com/restaurant/okro/abbasi-ev-yemekleri</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>150 TL minimum|</t>
+          <t>140 TL minimum|</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tost &amp; SandviçKokoreçRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk MutfağıEv YemekleriPilavRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2729,28 +2729,28 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Komagene Etsiz Çiğ Köfte</t>
+          <t>Bambi Cafe</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>25
+          <t>40
 DK.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/az2d/komagene-etsiz-cig-kofte-az2d</t>
+          <t>https://www.yemeksepeti.com/restaurant/qg8g/bambi-cafe-qg8g</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>70 TL minimum|</t>
+          <t>40 TL minimum|</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Çiğ KöfteVejetaryen SeçenekliKebap &amp; Türk Mutfağı</t>
+          <t>Tost &amp; SandviçRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2760,28 +2760,28 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Yes Kardeşler Fulya Dürümcüsü</t>
+          <t>Antepli Kardeşler Lahmacun</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>45
+          <t>60
 DK.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/xdxz/yes-kardesler-fulya-durumcusu</t>
+          <t>https://www.yemeksepeti.com/restaurant/bzsa/antepli-kardesler-lahmacun</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>65 TL minimum|</t>
+          <t>50 TL minimum|</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunRestoran Teslimatlı</t>
+          <t>Pide &amp; LahmacunVejetaryen SeçenekliKebap &amp; Türk Mutfağı</t>
         </is>
       </c>
     </row>
@@ -2791,28 +2791,28 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Pizza Lazza</t>
+          <t>Beyoğlu Halk Döner</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>45
+          <t>40
 DK.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/p2p6/pizza-lazza-p2p6</t>
+          <t>https://www.yemeksepeti.com/restaurant/o2vy/beyoglu-halk-doner-o2vy</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>59,99 TL minimum|</t>
+          <t>100 TL minimum|</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>PizzaVejetaryen SeçenekliRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk MutfağıVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -2822,28 +2822,28 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Abi Kardeş Lahmacun</t>
+          <t>Abbasi Ev Yemekleri</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>50
+          <t>60
 DK.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/p60n/abi-kardes-lahmacun</t>
+          <t>https://www.yemeksepeti.com/restaurant/r9hi/abbasi-ev-yemekleri-r9hi</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>120 TL minimum|</t>
+          <t>50 TL minimum|</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Pide &amp; LahmacunPizzaRestoran Teslimatlı</t>
+          <t>Ev Yemekleri</t>
         </is>
       </c>
     </row>
@@ -2853,28 +2853,28 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dönerci Celal Usta</t>
+          <t>Oses Çiğ Köfte</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>55
+          <t>35
 DK.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/fia4/donerci-celal-usta-fia4</t>
+          <t>https://www.yemeksepeti.com/restaurant/kj9z/oses-cig-kofte-kj9z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>120 TL minimum|</t>
+          <t>50 TL minimum|</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Döner</t>
+          <t>Çiğ KöfteRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2884,28 +2884,28 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Domino's Pizza</t>
+          <t>Etiler Marmaris</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>30
+          <t>40
 DK.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/xfx7/dominos-pizza-xfx7</t>
+          <t>https://www.yemeksepeti.com/restaurant/hob2/etiler-marmaris-hob2</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>59,99 TL minimum|</t>
+          <t>100 TL minimum|</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>PizzaRestoran Teslimatlı</t>
+          <t>Tost &amp; SandviçRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pizza Hut</t>
+          <t>Balbadem Pastanesi</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2926,17 +2926,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/kl95/pizza-hut-kl95</t>
+          <t>https://www.yemeksepeti.com/restaurant/er5v/balbadem-pastanesi</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>60 TL minimum|</t>
+          <t>180 TL minimum|</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>PizzaRestoran Teslimatlı</t>
+          <t>Pastane &amp; FırınVejetaryen SeçenekliTatlıRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2946,28 +2946,28 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Abi Kardeş Lahmacun &amp; Pizza</t>
+          <t>Abc Sucuk Ekmek</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>55
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/mw10/abi-kardes-lahmacun-and-pizza</t>
+          <t>https://www.yemeksepeti.com/restaurant/hmak/abc-sucuk-ekmek</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>100 TL minimum|</t>
+          <t>150 TL minimum|</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Pide &amp; LahmacunKebap &amp; Türk MutfağıPizza</t>
+          <t>Tost &amp; SandviçKokoreçRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Sette Lahmacun &amp; Pide</t>
+          <t>Pizza Hut</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2988,17 +2988,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/ph90/sette-lahmacun-and-pide</t>
+          <t>https://www.yemeksepeti.com/restaurant/kl95/pizza-hut-kl95</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>80 TL minimum|</t>
+          <t>60 TL minimum|</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Pide &amp; LahmacunVejetaryen SeçenekliKebap &amp; Türk Mutfağı</t>
+          <t>PizzaRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -3008,28 +3008,28 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Arby's</t>
+          <t>Lale Waffle &amp; Cafe</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>45
+          <t>35
 DK.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/xcfo/arbys-xcfo</t>
+          <t>https://www.yemeksepeti.com/restaurant/s3ec/lale-waffle-and-cafe</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>80 TL minimum|</t>
+          <t>20 TL minimum|</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>BurgerRestoran Teslimatlı</t>
+          <t>TatlıWaffleRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -3039,28 +3039,28 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Abim Pide &amp; Lahmacun &amp; Pizza</t>
+          <t>Sette Lahmacun &amp; Pide</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>55
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/rm3a/abim-pide-and-lahmacun-and-pizza</t>
+          <t>https://www.yemeksepeti.com/restaurant/ph90/sette-lahmacun-and-pide</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>240 TL minimum|</t>
+          <t>80 TL minimum|</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunVejetaryen Seçenekli</t>
+          <t>Pide &amp; LahmacunVejetaryen SeçenekliKebap &amp; Türk Mutfağı</t>
         </is>
       </c>
     </row>
@@ -3070,28 +3070,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sütiş</t>
+          <t>Abi Kardeş Lahmacun</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>45
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/ppau/sutis-ppau</t>
+          <t>https://www.yemeksepeti.com/restaurant/p60n/abi-kardes-lahmacun</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>300 TL minimum|</t>
+          <t>120 TL minimum|</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>TatlıVejetaryen SeçenekliDünya Mutfağı &amp; Cafe</t>
+          <t>Pide &amp; LahmacunPizzaRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -3101,18 +3101,18 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mahir Lokantası</t>
+          <t>Şişli Balıkçısı</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>45
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/alnu/mahir-lokantasi</t>
+          <t>https://www.yemeksepeti.com/restaurant/qc7e/sisli-balikcisi</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunVejetaryen Seçenekli</t>
+          <t>Balık ve Deniz ÜrünleriMezeRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -3132,28 +3132,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Saray Muhallebicisi 1935</t>
+          <t>Baruthane Pilavcısı</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>50
+          <t>25
 DK.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/qn9e/saray-muhallebicisi-1935-qn9e</t>
+          <t>https://www.yemeksepeti.com/restaurant/phak/baruthane-pilavcisi-phak</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>50 TL minimum|</t>
+          <t>70 TL minimum|</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>TatlıKahvaltı &amp; BörekKebap &amp; Türk Mutfağı</t>
+          <t>PilavYemeksepeti Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -3163,28 +3163,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Abovv Pizza</t>
+          <t>Helvacı Ali</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>45
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/oxfw/abovv-pizza</t>
+          <t>https://www.yemeksepeti.com/restaurant/e9rv/helvaci-ali-e9rv</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>60 TL minimum|</t>
+          <t>90 TL minimum|</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>PizzaRestoran Teslimatlı</t>
+          <t>TatlıDondurmaRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -3194,28 +3194,28 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Lahmacun-Cu</t>
+          <t>Abi Kardeş Lahmacun &amp; Pizza</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>40
+          <t>55
 DK.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/r3qf/lahmacun-cu</t>
+          <t>https://www.yemeksepeti.com/restaurant/mw10/abi-kardes-lahmacun-and-pizza</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>55 TL minimum|</t>
+          <t>100 TL minimum|</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Pide &amp; LahmacunKebap &amp; Türk MutfağıRestoran Teslimatlı</t>
+          <t>Pide &amp; LahmacunKebap &amp; Türk MutfağıPizza</t>
         </is>
       </c>
     </row>
@@ -3225,18 +3225,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Nizam Pide</t>
+          <t>Mahir Lokantası</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>50
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/bngy/nizam-pide-bngy</t>
+          <t>https://www.yemeksepeti.com/restaurant/alnu/mahir-lokantasi</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3256,28 +3256,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Baruthane Pilavcısı</t>
+          <t>Leziztaze</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>30
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/phak/baruthane-pilavcisi-phak</t>
+          <t>https://www.yemeksepeti.com/restaurant/e1td/leziztaze-e1td</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>70 TL minimum|</t>
+          <t>150 TL minimum|</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>PilavYemeksepeti Teslimatlı</t>
+          <t>Dünya Mutfağı &amp; CafeVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Abrakadabra Burger</t>
+          <t>Arby's</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3298,17 +3298,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/lpgd/abrakadabra-burger</t>
+          <t>https://www.yemeksepeti.com/restaurant/xcfo/arbys-xcfo</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>450 TL minimum|</t>
+          <t>80 TL minimum|</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>BurgerDünya Mutfağı &amp; CafeTavukRestoran Teslimatlı</t>
+          <t>BurgerRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -3318,28 +3318,28 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>İnci Profiterol Fulya</t>
+          <t>Abim Pide &amp; Lahmacun &amp; Pizza</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>45
+          <t>55
 DK.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/ga2a/inci-profiterol-fulya-ga2a</t>
+          <t>https://www.yemeksepeti.com/restaurant/rm3a/abim-pide-and-lahmacun-and-pizza</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>30 TL minimum|</t>
+          <t>240 TL minimum|</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>TatlıDondurmaRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Assos Döner</t>
+          <t>Nizam Pide</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3360,17 +3360,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/iof0/assos-doner</t>
+          <t>https://www.yemeksepeti.com/restaurant/bngy/nizam-pide-bngy</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>75 TL minimum|</t>
+          <t>100 TL minimum|</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>DönerKebap &amp; Türk Mutfağı</t>
+          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -3380,28 +3380,28 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Acil Yemek Oktay Usta</t>
+          <t>Hayri Usta Ev Yemekleri</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>45
+          <t>50
 DK.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/a2h8/acil-yemek-oktay-usta</t>
+          <t>https://www.yemeksepeti.com/restaurant/w27f/hayri-usta-ev-yemekleri</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>125 TL minimum|</t>
+          <t>80 TL minimum|</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıEv YemekleriRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk MutfağıVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -3411,28 +3411,28 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Şişli Balıkçısı</t>
+          <t>Dönerci Celal Usta</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>50
+          <t>55
 DK.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/qc7e/sisli-balikcisi</t>
+          <t>https://www.yemeksepeti.com/restaurant/fia4/donerci-celal-usta-fia4</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>100 TL minimum|</t>
+          <t>120 TL minimum|</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Balık ve Deniz ÜrünleriMezeRestoran Teslimatlı</t>
+          <t>Döner</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Abrakadabra Burger</t>
+          <t>Abovv Pizza</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3453,17 +3453,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/lpgd/abrakadabra-burger</t>
+          <t>https://www.yemeksepeti.com/restaurant/oxfw/abovv-pizza</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>450 TL minimum|</t>
+          <t>60 TL minimum|</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>BurgerDünya Mutfağı &amp; CafeTavukRestoran Teslimatlı</t>
+          <t>PizzaRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -3473,28 +3473,28 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Oses Çiğ Köfte</t>
+          <t>Pide Sepeti</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>35
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/kj9z/oses-cig-kofte-kj9z</t>
+          <t>https://www.yemeksepeti.com/restaurant/we0b/pide-sepeti</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>50 TL minimum|</t>
+          <t>45 TL minimum|</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Çiğ KöfteRestoran Teslimatlı</t>
+          <t>Kebap &amp; Türk MutfağıPide &amp; LahmacunVejetaryen Seçenekli</t>
         </is>
       </c>
     </row>
@@ -3504,28 +3504,28 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Crab Cafe &amp; Burger</t>
+          <t>İkram Tantuni</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>60
+          <t>45
 DK.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/or95/crab-cafe-and-burger</t>
+          <t>https://www.yemeksepeti.com/restaurant/r4aq/ikram-tantuni-r4aq</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>50 TL minimum|</t>
+          <t>20 TL minimum|</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>BurgerVejetaryen SeçenekliVegan Seçenekli</t>
+          <t>TantuniKebap &amp; Türk MutfağıRestoran Teslimatlı</t>
         </is>
       </c>
     </row>
@@ -3535,28 +3535,28 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Acil Yemek Oktay Usta</t>
+          <t>Tavuk Dünyası</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>45
+          <t>30
 DK.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.yemeksepeti.com/restaurant/a2h8/acil-yemek-oktay-usta</t>
+          <t>https://www.yemeksepeti.com/restaurant/izvh/tavuk-dunyasi-izvh</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>125 TL minimum|</t>
+          <t>70 TL minimum|</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kebap &amp; Türk MutfağıEv YemekleriRestoran Teslimatlı</t>
+          <t>Tavuk</t>
         </is>
       </c>
     </row>
